--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/dri_team.mWater/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2A5016-0119-E646-A507-1E2AD4285E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2211CC43-4A0C-FD4F-B6CE-C05E23E8D7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1040" windowWidth="24640" windowHeight="14360" xr2:uid="{67463A42-2F70-AC45-92BD-752C2D9933EB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t xml:space="preserve">OBSERVED CRITERIA </t>
   </si>
@@ -787,13 +787,31 @@
       </rPr>
       <t xml:space="preserve"> There is no spillage of waste </t>
     </r>
+  </si>
+  <si>
+    <t>Compliant</t>
+  </si>
+  <si>
+    <t>Partial Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non- Compliant </t>
+  </si>
+  <si>
+    <t>80&lt;100</t>
+  </si>
+  <si>
+    <t>40&lt;79</t>
+  </si>
+  <si>
+    <t>&lt;39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -878,8 +896,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,8 +931,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1284,11 +1335,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1437,6 +1533,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1751,19 +1868,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05EBE8-83DC-4E45-A3CA-01D6729DD4CB}">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1771,89 +1889,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J5" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J6" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J7" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="60"/>
+    </row>
+    <row r="8" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J9" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="J10" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J11" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="J12" s="54"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
